--- a/PPG/Autoavaliações.xlsx
+++ b/PPG/Autoavaliações.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC18B89-4334-4E46-A11F-61BC91F9FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7FFE1-E226-224F-91D5-FB3F78D05002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-2020 Autoavaliação" sheetId="15" r:id="rId1"/>
-    <sheet name="2021-2024 Autoavaliação" sheetId="16" r:id="rId2"/>
+    <sheet name="2021-2024 Autoavaliação" sheetId="16" r:id="rId1"/>
+    <sheet name="2017-2020 Autoavaliação" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Publicação</t>
   </si>
@@ -52,9 +52,6 @@
     <t>2019-2020</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1TOEC9kDXMqC9dob0VIHONY7E1nf1Lp1E/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Produção Bibliográfica.pdf</t>
   </si>
   <si>
@@ -64,15 +61,6 @@
     <t>Qualidade do Produto Final.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1lRlsIlbAjW-EE67-DoXB_TgalrYx-RCo/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1J24vkY2nEfY1O7Xs6g417SRzkR66mmXE/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cDpANLRIDBhv0jJG4QhLNzSnlixDUUto/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Qualidade das Disciplinas</t>
   </si>
   <si>
@@ -85,15 +73,9 @@
     <t>GT-4 Ficha de avaliação</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1NbjjkTy8w-zMPlkSI-1AsiM9SZsqEPML/view?usp=sharing</t>
-  </si>
-  <si>
     <t>GT-1 Prêmio UNISUAM de Artigos.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1CGrxoawXXgyBYV1YIa4dnQ1ydvqW-V4_/view?usp=sharing</t>
-  </si>
-  <si>
     <t>GT-05 Processo de Conclusão de Curso.pdf</t>
   </si>
   <si>
@@ -106,31 +88,46 @@
     <t>GT-08 Planejamento 2021-2024.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1UyPe63xglMJsQeaxcdNm1lr9jU75pjZ1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1V6lx6hCfAYw4PEJYZlCbScSdAi9c5XDc/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VBPKztsRFC1KOdQi6dsG3E2PC_DJdYoJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VBiJdu1tlrHqnCGD_Pr__iTjRKyuoe1s/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pxG_GtuR-7ixsqNOUnKJ7U9Scsi8pMVH/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2021-2022</t>
   </si>
   <si>
     <t>Perfil do Egresso</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1pvs3iOmuYoppUuHoK-nLVSywCsGFFuIW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RTvX0cbaBD-fgMJ0ojyVeBNqXvFAvSGI/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1jguRrIcKgoeerK-VTe4po3DZvOCAOJZ3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ix-9zIVULXlJMvntkXWl38iDEdvziDyK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pX9XpxS4U3k5sjkXA9mZ54nyK2-XT2FS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nVoIuS-WV9g_C34MXL9ESZr2r330s9z2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pd3TJKh-1xGKWMwcRB45-9P9rfaBA9jA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j_WVSwVdRET0oJaif0GPfHG5YRwGzowm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nH6uwlrnGT-FaR7CoJ3LfaEH_7yVhvE9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nVBJsNtabVPDJjBJqISPsrnpUs3THSx-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nRntRYDfbfJaeuwWvN3ksFcIo6tHmnAO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nRjCxEUpVdmoD5rY5Xa8EwnPbSoHmqE_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1k3PppnhBXToQItVOiMzSGAeGvwOYOXFN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ilDduzPYnLHOlnhH-TUPL4cVPcq43Kqw/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -501,8 +498,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,104 +523,86 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4">
+        <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5">
+        <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6">
+        <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7">
+        <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2020</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F02ABCF2-F61C-D640-B9CF-D1DB97A0F48B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{22641FE5-A161-794B-A5D4-000F479C9C92}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{8F7529E1-EE19-294A-A045-4D68F6F8E3D9}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{E15D1781-4546-2A46-A6D2-73C8A3B35FDD}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{C532E022-FF3E-E14E-A828-5A60E0D755A2}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{EFD2E4C0-8CDA-2B49-9A57-ACA7C5D6B8D3}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{B51F99A6-2893-674A-A7C2-CFFE8E8CC8B4}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{1ADA3C4E-6BDF-3E46-A6AF-12B6AED171AE}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{068CEAE8-FB82-8E4B-A34A-A442C0C939FB}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{C178753F-AEF9-8740-8320-9310B2F7A5BF}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{99B98833-EE3F-B340-809F-6341FC2821CF}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{A7DA1C44-4E81-9C4D-84AA-C4B46C8E0CA0}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{A65C386E-1AB6-E14B-BD9D-7F5DF385DBAC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -647,78 +626,96 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2021</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B239BC84-B650-C441-83E3-D7D774A48871}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{422948F1-3CD3-6349-BE72-2E61E0725F55}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{4266181D-B555-FE4D-9B7C-E55F1E611721}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{C9780D92-B9BE-744B-8E29-EEEBC031404B}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{0B6AB899-DEF8-444D-A528-6AF7F5F412E8}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{D2673564-E5EF-0147-A5E3-4D109B42D220}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CD2E828A-526F-5946-A54F-DA2B99E34B69}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{167856B5-A2D0-FA45-92F2-9FF10BF53DCB}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C5A71163-D1DF-044B-971A-CB4AE590FDB6}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Autoavaliações.xlsx
+++ b/PPG/Autoavaliações.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7FFE1-E226-224F-91D5-FB3F78D05002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226CC055-5769-B44B-8E48-9F06CE2157A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-2024 Autoavaliação" sheetId="16" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Publicação</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ilDduzPYnLHOlnhH-TUPL4cVPcq43Kqw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nSLC_mwELkrjKq2sMktkFgHooKwjgKRi/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -604,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -654,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -711,11 +714,11 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CD2E828A-526F-5946-A54F-DA2B99E34B69}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{167856B5-A2D0-FA45-92F2-9FF10BF53DCB}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{C5A71163-D1DF-044B-971A-CB4AE590FDB6}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{B3956656-7781-B346-83B7-F42CE185A9E7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Autoavaliações.xlsx
+++ b/PPG/Autoavaliações.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226CC055-5769-B44B-8E48-9F06CE2157A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C9E037-641F-9843-A2EB-F7E3B9731149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-2024 Autoavaliação" sheetId="16" r:id="rId1"/>
@@ -94,43 +94,43 @@
     <t>Perfil do Egresso</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1jguRrIcKgoeerK-VTe4po3DZvOCAOJZ3/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ix-9zIVULXlJMvntkXWl38iDEdvziDyK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pX9XpxS4U3k5sjkXA9mZ54nyK2-XT2FS/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nVoIuS-WV9g_C34MXL9ESZr2r330s9z2/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pd3TJKh-1xGKWMwcRB45-9P9rfaBA9jA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1j_WVSwVdRET0oJaif0GPfHG5YRwGzowm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nH6uwlrnGT-FaR7CoJ3LfaEH_7yVhvE9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nVBJsNtabVPDJjBJqISPsrnpUs3THSx-/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nRntRYDfbfJaeuwWvN3ksFcIo6tHmnAO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nRjCxEUpVdmoD5rY5Xa8EwnPbSoHmqE_/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1k3PppnhBXToQItVOiMzSGAeGvwOYOXFN/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ilDduzPYnLHOlnhH-TUPL4cVPcq43Kqw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nSLC_mwELkrjKq2sMktkFgHooKwjgKRi/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1jguRrIcKgoeerK-VTe4po3DZvOCAOJZ3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ix-9zIVULXlJMvntkXWl38iDEdvziDyK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nSLC_mwELkrjKq2sMktkFgHooKwjgKRi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pX9XpxS4U3k5sjkXA9mZ54nyK2-XT2FS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nVoIuS-WV9g_C34MXL9ESZr2r330s9z2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pd3TJKh-1xGKWMwcRB45-9P9rfaBA9jA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j_WVSwVdRET0oJaif0GPfHG5YRwGzowm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ilDduzPYnLHOlnhH-TUPL4cVPcq43Kqw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1k3PppnhBXToQItVOiMzSGAeGvwOYOXFN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nH6uwlrnGT-FaR7CoJ3LfaEH_7yVhvE9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nVBJsNtabVPDJjBJqISPsrnpUs3THSx-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nRntRYDfbfJaeuwWvN3ksFcIo6tHmnAO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nRjCxEUpVdmoD5rY5Xa8EwnPbSoHmqE_</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -657,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Autoavaliações.xlsx
+++ b/PPG/Autoavaliações.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C9E037-641F-9843-A2EB-F7E3B9731149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C8F2B-066A-5D43-81AF-A747F3F5F441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Publicação</t>
   </si>
@@ -64,18 +64,6 @@
     <t>Qualidade das Disciplinas</t>
   </si>
   <si>
-    <t>GT-2 Autoavaliação docente.pdf</t>
-  </si>
-  <si>
-    <t>GT-3 Estrutura curricular.pdf</t>
-  </si>
-  <si>
-    <t>GT-4 Ficha de avaliação</t>
-  </si>
-  <si>
-    <t>GT-1 Prêmio UNISUAM de Artigos.pdf</t>
-  </si>
-  <si>
     <t>GT-05 Processo de Conclusão de Curso.pdf</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>GT-07 Diversidade, Equidade e Inclusão.pdf</t>
   </si>
   <si>
-    <t>GT-08 Planejamento 2021-2024.pdf</t>
-  </si>
-  <si>
     <t>2021-2022</t>
   </si>
   <si>
@@ -127,10 +112,25 @@
     <t>https://drive.google.com/file/d/1nVBJsNtabVPDJjBJqISPsrnpUs3THSx-</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1nRntRYDfbfJaeuwWvN3ksFcIo6tHmnAO</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1nRjCxEUpVdmoD5rY5Xa8EwnPbSoHmqE_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fq5gao6hHjd3ubZwMhEf47M1JmFTjwqj</t>
+  </si>
+  <si>
+    <t>GT-08 Planejamento Estratégico 2021-2024.pdf</t>
+  </si>
+  <si>
+    <t>GT-01 Prêmio UNISUAM de Artigos.pdf</t>
+  </si>
+  <si>
+    <t>GT-02 Autoavaliação docente.pdf</t>
+  </si>
+  <si>
+    <t>GT-03 Estrutura curricular.pdf</t>
+  </si>
+  <si>
+    <t>GT-04 Ficha de avaliação</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,78 +526,78 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{1ADA3C4E-6BDF-3E46-A6AF-12B6AED171AE}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{068CEAE8-FB82-8E4B-A34A-A442C0C939FB}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{C178753F-AEF9-8740-8320-9310B2F7A5BF}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{99B98833-EE3F-B340-809F-6341FC2821CF}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{A7DA1C44-4E81-9C4D-84AA-C4B46C8E0CA0}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{A65C386E-1AB6-E14B-BD9D-7F5DF385DBAC}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{A7DA1C44-4E81-9C4D-84AA-C4B46C8E0CA0}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A65C386E-1AB6-E14B-BD9D-7F5DF385DBAC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6A218302-4C72-924C-8E4A-942A4F3A19F4}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{5C7618D2-0379-2440-B242-831DCBF5D066}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -654,10 +654,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -665,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,10 +676,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -687,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Autoavaliações.xlsx
+++ b/PPG/Autoavaliações.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C8F2B-066A-5D43-81AF-A747F3F5F441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFFB632-A0A4-834B-964B-59E0A325B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/PPG/Autoavaliações.xlsx
+++ b/PPG/Autoavaliações.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFFB632-A0A4-834B-964B-59E0A325B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79035BEE-0FC7-7648-9BBB-1081CBAB4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>https://drive.google.com/file/d/1nRjCxEUpVdmoD5rY5Xa8EwnPbSoHmqE_</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Fq5gao6hHjd3ubZwMhEf47M1JmFTjwqj</t>
-  </si>
-  <si>
     <t>GT-08 Planejamento Estratégico 2021-2024.pdf</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>GT-04 Ficha de avaliação</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fi5VtKblMVEZ--_0_49ijnFn0VmqDyfS</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -665,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>

--- a/PPG/Autoavaliações.xlsx
+++ b/PPG/Autoavaliações.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79035BEE-0FC7-7648-9BBB-1081CBAB4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9673A77-EFCE-884B-8F18-6872ED5ADF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
